--- a/Kali_GF_Zusammenfassung_20240820.xlsx
+++ b/Kali_GF_Zusammenfassung_20240820.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\AG-Daten\Protokolle-SOPs\VSB_Rinderstall\Plausibilisierung\Plau_Kraftfutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949A5979-35EF-4742-94FB-EA6CF1C4AD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4EDD79-5FB4-4448-BBE6-5C5E56E675DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8685" xr2:uid="{50B188C5-1E39-43C2-9413-72AAFB043522}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="895">
   <si>
     <t>Datum</t>
   </si>
@@ -2707,6 +2707,9 @@
   </si>
   <si>
     <t>37.60</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -3060,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E9C570-B8C0-4DEF-9945-A1CF45DFE17F}">
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11393,6 +11396,94 @@
         <v>559</v>
       </c>
     </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B190" t="s">
+        <v>894</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190">
+        <v>13392615</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" t="s">
+        <v>33</v>
+      </c>
+      <c r="I190" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" t="s">
+        <v>33</v>
+      </c>
+      <c r="K190" t="s">
+        <v>33</v>
+      </c>
+      <c r="L190" t="s">
+        <v>33</v>
+      </c>
+      <c r="M190" t="s">
+        <v>33</v>
+      </c>
+      <c r="N190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B191" t="s">
+        <v>894</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191">
+        <v>13392597</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" t="s">
+        <v>33</v>
+      </c>
+      <c r="K191" t="s">
+        <v>33</v>
+      </c>
+      <c r="L191" t="s">
+        <v>33</v>
+      </c>
+      <c r="M191" t="s">
+        <v>33</v>
+      </c>
+      <c r="N191" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
